--- a/planilhas/resultados.xlsx
+++ b/planilhas/resultados.xlsx
@@ -13,10 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="1" r:id="rId1"/>
-    <sheet name="Todos" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
+    <sheet name="Todos" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="compare22" localSheetId="1">Todos!$A$1:$D$20</definedName>
+    <definedName name="compare_entities" localSheetId="1">Planilha1!$A$1:$D$18</definedName>
+    <definedName name="compare22" localSheetId="2">Todos!$A$1:$D$20</definedName>
     <definedName name="resultados" localSheetId="0">Entidades!$A$1:$D$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,7 +32,17 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="compare22" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" name="compare_entities" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\Marcos\Documents\GitHub\drunk\planilhas\compare_entities.csv" decimal="," thousands="." comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="compare22" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\Marcos\Documents\GitHub\drunk\compare22.csv" decimal="," thousands="." comma="1">
       <textFields count="4">
         <textField/>
@@ -40,7 +52,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="resultados" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" name="resultados" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\Marcos\Documents\GitHub\drunk\resultados.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField/>
@@ -54,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
   <si>
     <t>Técnica</t>
   </si>
@@ -420,6 +432,60 @@
   </si>
   <si>
     <t>0.881431767337808</t>
+  </si>
+  <si>
+    <t>0.904328018223235</t>
+  </si>
+  <si>
+    <t>0.921113689095128</t>
+  </si>
+  <si>
+    <t>0.888143176733781</t>
+  </si>
+  <si>
+    <t>Calais (Not NULL)</t>
+  </si>
+  <si>
+    <t>0.89337822671156</t>
+  </si>
+  <si>
+    <t>0.896396396396396</t>
+  </si>
+  <si>
+    <t>Alchemy Entities (NOT NULL)</t>
+  </si>
+  <si>
+    <t>0.887882219705549</t>
+  </si>
+  <si>
+    <t>0.899082568807339</t>
+  </si>
+  <si>
+    <t>2GRAM entidades Todas (NOT NULL)</t>
+  </si>
+  <si>
+    <t>0.906636670416198</t>
+  </si>
+  <si>
+    <t>0.911764705882353</t>
+  </si>
+  <si>
+    <t>0.901565995525727</t>
+  </si>
+  <si>
+    <t>2GRAM Categorias + Erro + NOT NULL</t>
+  </si>
+  <si>
+    <t>2GRAM Categorias + Hora + NOT NULL</t>
+  </si>
+  <si>
+    <t>0.888382687927107</t>
+  </si>
+  <si>
+    <t>0.904872389791183</t>
+  </si>
+  <si>
+    <t>0.87248322147651</t>
   </si>
 </sst>
 </file>
@@ -484,11 +550,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="resultados" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="resultados" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="compare22" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="compare_entities" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="compare22" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -788,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A16" sqref="A16:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,12 +1080,354 @@
         <v>121</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>

--- a/planilhas/resultados.xlsx
+++ b/planilhas/resultados.xlsx
@@ -9,16 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
-    <sheet name="Todos" sheetId="2" r:id="rId3"/>
+    <sheet name="Gráfico" sheetId="4" r:id="rId3"/>
+    <sheet name="Todos" sheetId="2" r:id="rId4"/>
+    <sheet name="Features Most Important" sheetId="5" r:id="rId5"/>
+    <sheet name="Features" sheetId="6" r:id="rId6"/>
+    <sheet name="Q2" sheetId="7" r:id="rId7"/>
+    <sheet name="Planilha6" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="compare_entities" localSheetId="1">Planilha1!$A$1:$D$18</definedName>
-    <definedName name="compare22" localSheetId="2">Todos!$A$1:$D$20</definedName>
+    <definedName name="compare22" localSheetId="3">Todos!$A$1:$D$20</definedName>
+    <definedName name="marcos" localSheetId="7">Planilha6!$A$1:$D$14</definedName>
     <definedName name="resultados" localSheetId="0">Entidades!$A$1:$D$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -52,7 +58,17 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="resultados" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" name="marcos" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="C:\Users\Marcos\Documents\GitHub\drunk\marcos.csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="resultados" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\Marcos\Documents\GitHub\drunk\resultados.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField/>
@@ -66,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="256">
   <si>
     <t>Técnica</t>
   </si>
@@ -356,9 +372,6 @@
     <t>0.8926174</t>
   </si>
   <si>
-    <t>2GRAM Categorias + Hora + Erro (NOT NULL)</t>
-  </si>
-  <si>
     <t>0.910299</t>
   </si>
   <si>
@@ -486,6 +499,357 @@
   </si>
   <si>
     <t>0.87248322147651</t>
+  </si>
+  <si>
+    <t>Proposed Method</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>X.food.and.drink.beverages.alcoholic.beverages.cocktails.and.beer</t>
+  </si>
+  <si>
+    <t>0.6853</t>
+  </si>
+  <si>
+    <t>drunk</t>
+  </si>
+  <si>
+    <t>0.6134</t>
+  </si>
+  <si>
+    <t>X.food.and.drink.beverages.alcoholic.beverages.wine</t>
+  </si>
+  <si>
+    <t>0.5961</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>0.5913</t>
+  </si>
+  <si>
+    <t>beer</t>
+  </si>
+  <si>
+    <t>0.5836</t>
+  </si>
+  <si>
+    <t>X.food.and.drink</t>
+  </si>
+  <si>
+    <t>0.5753</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>0.5748</t>
+  </si>
+  <si>
+    <t>club</t>
+  </si>
+  <si>
+    <t>0.5637</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>0.5562</t>
+  </si>
+  <si>
+    <t>X.art.and.entertainment.movies.and.tv.movies</t>
+  </si>
+  <si>
+    <t>0.5523</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>0.5477</t>
+  </si>
+  <si>
+    <t>beer.2</t>
+  </si>
+  <si>
+    <t>0.5418</t>
+  </si>
+  <si>
+    <t>X.shopping.gifts.party.supplies</t>
+  </si>
+  <si>
+    <t>0.5367</t>
+  </si>
+  <si>
+    <t>X.health.and.fitness.disease.cold.and.flu</t>
+  </si>
+  <si>
+    <t>0.5340</t>
+  </si>
+  <si>
+    <t>X.society.sex</t>
+  </si>
+  <si>
+    <t>0.5338</t>
+  </si>
+  <si>
+    <t>drinking</t>
+  </si>
+  <si>
+    <t>0.5325</t>
+  </si>
+  <si>
+    <t>X.law</t>
+  </si>
+  <si>
+    <t>0.5324</t>
+  </si>
+  <si>
+    <t>party.2</t>
+  </si>
+  <si>
+    <t>0.5315</t>
+  </si>
+  <si>
+    <t>Alcoholic.beverage</t>
+  </si>
+  <si>
+    <t>0.5293</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>0.5283</t>
+  </si>
+  <si>
+    <t>mention</t>
+  </si>
+  <si>
+    <t>0.5258</t>
+  </si>
+  <si>
+    <t>wine.2</t>
+  </si>
+  <si>
+    <t>0.5251</t>
+  </si>
+  <si>
+    <t>X.science.chemistry</t>
+  </si>
+  <si>
+    <t>0.5246</t>
+  </si>
+  <si>
+    <t>X.mention</t>
+  </si>
+  <si>
+    <t>0.5240</t>
+  </si>
+  <si>
+    <t>X.art.and.entertainment.music</t>
+  </si>
+  <si>
+    <t>0.5221</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>0.5209</t>
+  </si>
+  <si>
+    <t>shot.1</t>
+  </si>
+  <si>
+    <t>X.govt.and.politics.law.enforcement.police</t>
+  </si>
+  <si>
+    <t>0.5203</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>0.5199</t>
+  </si>
+  <si>
+    <t>Beer</t>
+  </si>
+  <si>
+    <t>0.5193</t>
+  </si>
+  <si>
+    <t>2GRAM Entidades + Hora + Erro (NOT NULL)</t>
+  </si>
+  <si>
+    <t>Entidade</t>
+  </si>
+  <si>
+    <t>Gram</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Precisison</t>
+  </si>
+  <si>
+    <t>Baseline Q2</t>
+  </si>
+  <si>
+    <t>Proposed Method Q2</t>
+  </si>
+  <si>
+    <t>3 GRAM 25</t>
+  </si>
+  <si>
+    <t>0.907675194660734</t>
+  </si>
+  <si>
+    <t>0.902654867256637</t>
+  </si>
+  <si>
+    <t>0.912751677852349</t>
+  </si>
+  <si>
+    <t>3 GRAM 25 Q2</t>
+  </si>
+  <si>
+    <t>0.695340501792115</t>
+  </si>
+  <si>
+    <t>0.683098591549296</t>
+  </si>
+  <si>
+    <t>0.708029197080292</t>
+  </si>
+  <si>
+    <t>2 Gram + Entidades + Hora + Erro Q2</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.69811320754717</t>
+  </si>
+  <si>
+    <t>0.81021897810219</t>
+  </si>
+  <si>
+    <t>3 GRAM 25 Q3</t>
+  </si>
+  <si>
+    <t>0.607287449392713</t>
+  </si>
+  <si>
+    <t>0.641025641025641</t>
+  </si>
+  <si>
+    <t>0.576923076923077</t>
+  </si>
+  <si>
+    <t>2 Gram + Entidades + Hora + Erro Q3</t>
+  </si>
+  <si>
+    <t>0.650406504065041</t>
+  </si>
+  <si>
+    <t>0.689655172413793</t>
+  </si>
+  <si>
+    <t>0.615384615384615</t>
+  </si>
+  <si>
+    <t>3 GRAM 25 Q2 (Not Null)</t>
+  </si>
+  <si>
+    <t>0.825622775800712</t>
+  </si>
+  <si>
+    <t>0.805555555555556</t>
+  </si>
+  <si>
+    <t>0.846715328467153</t>
+  </si>
+  <si>
+    <t>2 Gram + Entidades + Hora + Erro Q2 (Not Null)</t>
+  </si>
+  <si>
+    <t>0.877551020408163</t>
+  </si>
+  <si>
+    <t>0.821656050955414</t>
+  </si>
+  <si>
+    <t>0.941605839416058</t>
+  </si>
+  <si>
+    <t>3 GRAM 25 Q3 (Not Null)</t>
+  </si>
+  <si>
+    <t>0.764705882352941</t>
+  </si>
+  <si>
+    <t>0.732394366197183</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>2 Gram + Entidades + Hora + Erro Q3 (Not Null)</t>
+  </si>
+  <si>
+    <t>0.801418439716312</t>
+  </si>
+  <si>
+    <t>0.743421052631579</t>
+  </si>
+  <si>
+    <t>0.869230769230769</t>
+  </si>
+  <si>
+    <t>3 GRAM 25 Not Null</t>
+  </si>
+  <si>
+    <t>0.588235294117647</t>
+  </si>
+  <si>
+    <t>0.554455445544555</t>
+  </si>
+  <si>
+    <t>0.626398210290828</t>
+  </si>
+  <si>
+    <t>2 Gram + Entidades + Hora + Erro (Not Null)</t>
+  </si>
+  <si>
+    <t>0.910299003322259</t>
+  </si>
+  <si>
+    <t>0.901315789473684</t>
+  </si>
+  <si>
+    <t>0.893095768374165</t>
+  </si>
+  <si>
+    <t>0.889135254988914</t>
+  </si>
+  <si>
+    <t>Baseline Q3</t>
+  </si>
+  <si>
+    <t>Proposed Method Q3</t>
   </si>
 </sst>
 </file>
@@ -549,8 +913,3349 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Comparative for Q1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfico!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed Method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfico!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfico!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>91.029899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.13158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.946309999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C1A3-4DBC-AD39-006560132F2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfico!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfico!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfico!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>89.309579999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.913529999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.70917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C1A3-4DBC-AD39-006560132F2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="354275144"/>
+        <c:axId val="354272192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="354275144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354272192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="354272192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="354275144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Features Most Important for Q1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Features!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Importance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-D095-4330-864E-78176AE8F320}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D095-4330-864E-78176AE8F320}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-D095-4330-864E-78176AE8F320}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D095-4330-864E-78176AE8F320}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-D095-4330-864E-78176AE8F320}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D095-4330-864E-78176AE8F320}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-D095-4330-864E-78176AE8F320}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D095-4330-864E-78176AE8F320}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-D095-4330-864E-78176AE8F320}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D095-4330-864E-78176AE8F320}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-D095-4330-864E-78176AE8F320}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-D095-4330-864E-78176AE8F320}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Features!$A$2:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>X.food.and.drink.beverages.alcoholic.beverages.cocktails.and.beer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>drunk</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X.food.and.drink.beverages.alcoholic.beverages.wine</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>party</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>beer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X.food.and.drink</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>shot</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>club</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wine</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>X.art.and.entertainment.movies.and.tv.movies</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>fucked</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>beer.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>X.shopping.gifts.party.supplies</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>X.health.and.fitness.disease.cold.and.flu</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>X.society.sex</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>drinking</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>X.law</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>party.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Alcoholic.beverage</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>turn</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>mention</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>wine.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>X.science.chemistry</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>X.mention</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>X.art.and.entertainment.music</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>alcohol</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>shot.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>X.govt.and.politics.law.enforcement.police</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>drink</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Beer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Features!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.68530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59130000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57530000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56369999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55620000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54179999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53669999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.53400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53380000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.53249999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52580000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.52510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.52459999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.52400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.52090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.52029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.51990000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.51929999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D095-4330-864E-78176AE8F320}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="440346632"/>
+        <c:axId val="440347288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="440346632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440347288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="440347288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440346632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q2'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Baseline Q2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Proposed Method Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baseline Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Proposed Method Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q2'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>82.562277580071196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.755102040816297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.470588235294102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.141843971631204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EE9-4A49-B997-6DFC859CB76E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precisison</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q2'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Baseline Q2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Proposed Method Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baseline Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Proposed Method Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q2'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80.5555555555556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.165605095541395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.239436619718305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.342105263157904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9EE9-4A49-B997-6DFC859CB76E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q2'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Baseline Q2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Proposed Method Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baseline Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Proposed Method Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q2'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>84.671532846715294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.160583941605793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.923076923076906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9EE9-4A49-B997-6DFC859CB76E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="438881800"/>
+        <c:axId val="438880160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="438881800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438880160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="438880160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438881800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F6C7BB-02A8-4D70-8108-6E1B7AC7CF58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444E1652-EA1E-4AF6-BA0D-7E3D49C36E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2EDEE9D-917E-4622-A706-05C1C2021B17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="resultados" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="resultados" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,6 +4264,10 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="compare22" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="marcos" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -860,8 +4569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,41 +4693,41 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>97</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>98</v>
-      </c>
-      <c r="D9" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
         <v>100</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>101</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>102</v>
-      </c>
-      <c r="D10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
         <v>104</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>105</v>
-      </c>
-      <c r="C11" t="s">
-        <v>106</v>
       </c>
       <c r="D11" t="s">
         <v>70</v>
@@ -1026,27 +4735,27 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
         <v>107</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>108</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>109</v>
-      </c>
-      <c r="D12" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
         <v>111</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>112</v>
-      </c>
-      <c r="C13" t="s">
-        <v>113</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
@@ -1054,41 +4763,41 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
         <v>114</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>115</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>116</v>
-      </c>
-      <c r="D14" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
         <v>118</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>119</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>120</v>
-      </c>
-      <c r="D15" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
         <v>125</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>127</v>
       </c>
       <c r="D16" t="s">
         <v>70</v>
@@ -1096,35 +4805,35 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
         <v>128</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>129</v>
       </c>
-      <c r="C17" t="s">
-        <v>130</v>
-      </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
         <v>131</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>132</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>133</v>
-      </c>
-      <c r="D18" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -1138,16 +4847,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
         <v>136</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>137</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>138</v>
-      </c>
-      <c r="D20" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1161,7 +4870,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,13 +4968,13 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
         <v>122</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>123</v>
-      </c>
-      <c r="D7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1284,13 +4993,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
         <v>104</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -1298,27 +5007,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
         <v>107</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>108</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>109</v>
-      </c>
-      <c r="D10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
         <v>111</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>112</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
@@ -1326,41 +5035,41 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
         <v>114</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>115</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>116</v>
-      </c>
-      <c r="D12" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
         <v>118</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>120</v>
-      </c>
-      <c r="D13" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
         <v>125</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>126</v>
-      </c>
-      <c r="C14" t="s">
-        <v>127</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
@@ -1368,35 +5077,35 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
         <v>128</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>129</v>
       </c>
-      <c r="C15" t="s">
-        <v>130</v>
-      </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s">
         <v>131</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>132</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>133</v>
-      </c>
-      <c r="D16" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -1410,16 +5119,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
         <v>136</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>137</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>138</v>
-      </c>
-      <c r="D18" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1429,10 +5138,83 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2">
+        <v>91.029899999999998</v>
+      </c>
+      <c r="C2">
+        <v>90.13158</v>
+      </c>
+      <c r="D2">
+        <v>91.946309999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>89.309579999999997</v>
+      </c>
+      <c r="C3">
+        <v>88.913529999999994</v>
+      </c>
+      <c r="D3">
+        <v>89.70917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>B2-B3</f>
+        <v>1.720320000000001</v>
+      </c>
+      <c r="C4">
+        <f>C2-C3</f>
+        <v>1.2180500000000052</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="C4:D4" si="0">D2-D3</f>
+        <v>2.2371399999999966</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,4 +5507,1025 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>SUMIFS(D2:D31,C2:C31,"=Entidade")</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2">
+        <v>0.68530000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3">
+        <v>0.61339999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4">
+        <v>0.59609999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5">
+        <v>0.59130000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6">
+        <v>0.58360000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7">
+        <v>0.57530000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8">
+        <v>0.57479999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9">
+        <v>0.56369999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10">
+        <v>0.55620000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11">
+        <v>0.55230000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12">
+        <v>0.54769999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13">
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="D13">
+        <f>18/30</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14">
+        <v>0.53669999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16">
+        <v>0.53380000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17">
+        <v>0.53249999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18">
+        <v>0.53239999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19">
+        <v>0.53149999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20">
+        <v>0.52929999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21">
+        <v>0.52829999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22">
+        <v>0.52580000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23">
+        <v>0.52510000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24">
+        <v>0.52459999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26">
+        <v>0.52210000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27">
+        <v>0.52090000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28">
+        <v>0.52090000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29">
+        <v>0.52029999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30">
+        <v>0.51990000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31">
+        <v>0.51929999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2">
+        <v>82.562277580071196</v>
+      </c>
+      <c r="C2">
+        <v>80.5555555555556</v>
+      </c>
+      <c r="D2">
+        <v>84.671532846715294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3">
+        <v>87.755102040816297</v>
+      </c>
+      <c r="C3">
+        <v>82.165605095541395</v>
+      </c>
+      <c r="D3">
+        <v>94.160583941605793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4">
+        <v>76.470588235294102</v>
+      </c>
+      <c r="C4">
+        <v>73.239436619718305</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5">
+        <v>80.141843971631204</v>
+      </c>
+      <c r="C5">
+        <v>74.342105263157904</v>
+      </c>
+      <c r="D5">
+        <v>86.923076923076906</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/planilhas/resultados.xlsx
+++ b/planilhas/resultados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="Todos" sheetId="2" r:id="rId4"/>
     <sheet name="Features Most Important" sheetId="5" r:id="rId5"/>
     <sheet name="Features" sheetId="6" r:id="rId6"/>
-    <sheet name="Q2" sheetId="7" r:id="rId7"/>
+    <sheet name="Q2 + Q3" sheetId="7" r:id="rId7"/>
     <sheet name="Planilha6" sheetId="8" r:id="rId8"/>
+    <sheet name="Q2" sheetId="9" r:id="rId9"/>
+    <sheet name="Q3" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="compare_entities" localSheetId="1">Planilha1!$A$1:$D$18</definedName>
@@ -82,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="223">
   <si>
     <t>Técnica</t>
   </si>
@@ -711,114 +713,12 @@
     <t>Proposed Method Q2</t>
   </si>
   <si>
-    <t>3 GRAM 25</t>
-  </si>
-  <si>
-    <t>0.907675194660734</t>
-  </si>
-  <si>
-    <t>0.902654867256637</t>
-  </si>
-  <si>
-    <t>0.912751677852349</t>
-  </si>
-  <si>
-    <t>3 GRAM 25 Q2</t>
-  </si>
-  <si>
-    <t>0.695340501792115</t>
-  </si>
-  <si>
-    <t>0.683098591549296</t>
-  </si>
-  <si>
-    <t>0.708029197080292</t>
-  </si>
-  <si>
-    <t>2 Gram + Entidades + Hora + Erro Q2</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.69811320754717</t>
-  </si>
-  <si>
-    <t>0.81021897810219</t>
-  </si>
-  <si>
-    <t>3 GRAM 25 Q3</t>
-  </si>
-  <si>
-    <t>0.607287449392713</t>
-  </si>
-  <si>
-    <t>0.641025641025641</t>
-  </si>
-  <si>
-    <t>0.576923076923077</t>
-  </si>
-  <si>
-    <t>2 Gram + Entidades + Hora + Erro Q3</t>
-  </si>
-  <si>
-    <t>0.650406504065041</t>
-  </si>
-  <si>
-    <t>0.689655172413793</t>
-  </si>
-  <si>
-    <t>0.615384615384615</t>
-  </si>
-  <si>
     <t>3 GRAM 25 Q2 (Not Null)</t>
   </si>
   <si>
-    <t>0.825622775800712</t>
-  </si>
-  <si>
-    <t>0.805555555555556</t>
-  </si>
-  <si>
-    <t>0.846715328467153</t>
-  </si>
-  <si>
-    <t>2 Gram + Entidades + Hora + Erro Q2 (Not Null)</t>
-  </si>
-  <si>
-    <t>0.877551020408163</t>
-  </si>
-  <si>
-    <t>0.821656050955414</t>
-  </si>
-  <si>
-    <t>0.941605839416058</t>
-  </si>
-  <si>
     <t>3 GRAM 25 Q3 (Not Null)</t>
   </si>
   <si>
-    <t>0.764705882352941</t>
-  </si>
-  <si>
-    <t>0.732394366197183</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>2 Gram + Entidades + Hora + Erro Q3 (Not Null)</t>
-  </si>
-  <si>
-    <t>0.801418439716312</t>
-  </si>
-  <si>
-    <t>0.743421052631579</t>
-  </si>
-  <si>
-    <t>0.869230769230769</t>
-  </si>
-  <si>
     <t>3 GRAM 25 Not Null</t>
   </si>
   <si>
@@ -831,25 +731,28 @@
     <t>0.626398210290828</t>
   </si>
   <si>
-    <t>2 Gram + Entidades + Hora + Erro (Not Null)</t>
-  </si>
-  <si>
-    <t>0.910299003322259</t>
-  </si>
-  <si>
-    <t>0.901315789473684</t>
-  </si>
-  <si>
-    <t>0.893095768374165</t>
-  </si>
-  <si>
-    <t>0.889135254988914</t>
-  </si>
-  <si>
     <t>Baseline Q3</t>
   </si>
   <si>
     <t>Proposed Method Q3</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>+ F1</t>
+  </si>
+  <si>
+    <t>+ Precision</t>
+  </si>
+  <si>
+    <t>+ Recall</t>
   </si>
 </sst>
 </file>
@@ -893,9 +796,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2098,7 +2002,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Q2'!$B$1</c:f>
+              <c:f>'Q2 + Q3'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2119,7 +2023,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Q2'!$A$2:$A$5</c:f>
+              <c:f>'Q2 + Q3'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2139,7 +2043,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q2'!$B$2:$B$5</c:f>
+              <c:f>'Q2 + Q3'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2169,7 +2073,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Q2'!$C$1</c:f>
+              <c:f>'Q2 + Q3'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2190,7 +2094,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Q2'!$A$2:$A$5</c:f>
+              <c:f>'Q2 + Q3'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2210,7 +2114,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q2'!$C$2:$C$5</c:f>
+              <c:f>'Q2 + Q3'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2240,7 +2144,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Q2'!$D$1</c:f>
+              <c:f>'Q2 + Q3'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2261,7 +2165,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Q2'!$A$2:$A$5</c:f>
+              <c:f>'Q2 + Q3'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2281,7 +2185,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Q2'!$D$2:$D$5</c:f>
+              <c:f>'Q2 + Q3'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2502,6 +2406,823 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Comparative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t> Q2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q2'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precisison</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q2'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>82.562277580071196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.5555555555556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.671532846715294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8CA-4341-A49C-78736E24EF53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed Method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q2'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precisison</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q2'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>87.755102040816297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.165605095541395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.160583941605793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A8CA-4341-A49C-78736E24EF53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="326881544"/>
+        <c:axId val="326886136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="326881544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="326886136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="326886136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="326881544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Comparative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> for Q3</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q3'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precisison</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q3'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>76.470588235294102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.239436619718305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAEF-49B8-942A-DE8B2CE77F8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed Method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q3'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precisison</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q3'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80.141843971631204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.342105263157904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.923076923076906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CAEF-49B8-942A-DE8B2CE77F8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="252160488"/>
+        <c:axId val="252157536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="252160488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="252157536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="252157536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="252160488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2622,6 +3343,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3629,6 +4430,1012 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4217,16 +6024,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4234,6 +6041,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2EDEE9D-917E-4622-A706-05C1C2021B17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EB596A-7709-484F-A619-B28C3DBD6AF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF840D3-F99C-4532-AF2B-7177C617CA2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4865,6 +6754,80 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>76.470588235294102</v>
+      </c>
+      <c r="C2">
+        <v>73.239436619718305</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3">
+        <v>80.141843971631204</v>
+      </c>
+      <c r="C3">
+        <v>74.342105263157904</v>
+      </c>
+      <c r="D3">
+        <v>86.923076923076906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>B3-B2</f>
+        <v>3.6712557363371019</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:D4" si="0">C3-C2</f>
+        <v>1.1026686434395998</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>6.9230769230769056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
@@ -5199,7 +7162,7 @@
         <v>1.2180500000000052</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="C4:D4" si="0">D2-D3</f>
+        <f t="shared" ref="D4" si="0">D2-D3</f>
         <v>2.2371399999999966</v>
       </c>
     </row>
@@ -6231,7 +8194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -6282,7 +8245,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="B4">
         <v>76.470588235294102</v>
@@ -6296,7 +8259,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="B5">
         <v>80.141843971631204</v>
@@ -6317,215 +8280,249 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2">
+        <v>91.029900332225907</v>
+      </c>
+      <c r="C2">
+        <v>90.131578947368396</v>
+      </c>
+      <c r="D2">
+        <v>91.946308724832207</v>
+      </c>
+      <c r="E2">
+        <f>B2-B14</f>
+        <v>1.7203234948094064</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:G2" si="0">C2-C14</f>
+        <v>1.2180534484769936</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>2.2371364653244115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3">
+        <v>87.755102040816297</v>
+      </c>
+      <c r="C3">
+        <v>82.165605095541395</v>
+      </c>
+      <c r="D3">
+        <v>94.160583941605793</v>
+      </c>
+      <c r="E3">
+        <f>B3-B8</f>
+        <v>5.1928244607451006</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:G3" si="1">C3-C8</f>
+        <v>1.6100495399857948</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>9.4890510948904989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4">
+        <v>80.141843971631204</v>
+      </c>
+      <c r="C4">
+        <v>74.342105263157904</v>
+      </c>
+      <c r="D4">
+        <v>86.923076923076906</v>
+      </c>
+      <c r="E4">
+        <f>B4-B10</f>
+        <v>3.6712557363371019</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:G4" si="2">C4-C10</f>
+        <v>1.1026686434395998</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>6.9230769230769056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8">
+        <v>82.562277580071196</v>
+      </c>
+      <c r="C8">
+        <v>80.5555555555556</v>
+      </c>
+      <c r="D8">
+        <v>84.671532846715294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10">
+        <v>76.470588235294102</v>
+      </c>
+      <c r="C10">
+        <v>73.239436619718305</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14">
+        <v>89.3095768374165</v>
+      </c>
+      <c r="C14">
+        <v>88.913525498891403</v>
+      </c>
+      <c r="D14">
+        <v>89.709172259507795</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>206</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>82.562277580071196</v>
+      </c>
+      <c r="C2">
+        <v>80.5555555555556</v>
+      </c>
+      <c r="D2">
+        <v>84.671532846715294</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" t="s">
-        <v>212</v>
+        <v>139</v>
+      </c>
+      <c r="B3">
+        <v>87.755102040816297</v>
+      </c>
+      <c r="C3">
+        <v>82.165605095541395</v>
+      </c>
+      <c r="D3">
+        <v>94.160583941605793</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>249</v>
-      </c>
-      <c r="B13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>245</v>
-      </c>
-      <c r="B14" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" t="s">
-        <v>253</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
+      <c r="B4">
+        <f>B3-B2</f>
+        <v>5.1928244607451006</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:D4" si="0">C3-C2</f>
+        <v>1.6100495399857948</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>9.4890510948904989</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/planilhas/resultados.xlsx
+++ b/planilhas/resultados.xlsx
@@ -759,6 +759,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -796,10 +799,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8283,7 +8287,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G4"/>
+      <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8318,24 +8322,24 @@
       <c r="A2" t="s">
         <v>217</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>91.029900332225907</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>90.131578947368396</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>91.946308724832207</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <f>B2-B14</f>
         <v>1.7203234948094064</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <f t="shared" ref="F2:G2" si="0">C2-C14</f>
         <v>1.2180534484769936</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <f t="shared" si="0"/>
         <v>2.2371364653244115</v>
       </c>
@@ -8344,24 +8348,24 @@
       <c r="A3" t="s">
         <v>218</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>87.755102040816297</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>82.165605095541395</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>94.160583941605793</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <f>B3-B8</f>
         <v>5.1928244607451006</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <f t="shared" ref="F3:G3" si="1">C3-C8</f>
         <v>1.6100495399857948</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <f t="shared" si="1"/>
         <v>9.4890510948904989</v>
       </c>
@@ -8370,24 +8374,24 @@
       <c r="A4" t="s">
         <v>219</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>80.141843971631204</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>74.342105263157904</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>86.923076923076906</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <f>B4-B10</f>
         <v>3.6712557363371019</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <f t="shared" ref="F4:G4" si="2">C4-C10</f>
         <v>1.1026686434395998</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <f t="shared" si="2"/>
         <v>6.9230769230769056</v>
       </c>
@@ -8450,6 +8454,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/planilhas/resultados.xlsx
+++ b/planilhas/resultados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,14 @@
     <sheet name="Planilha6" sheetId="8" r:id="rId8"/>
     <sheet name="Q2" sheetId="9" r:id="rId9"/>
     <sheet name="Q3" sheetId="10" r:id="rId10"/>
+    <sheet name="Gráfico entidades" sheetId="19" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="compare_entities" localSheetId="1">Planilha1!$A$1:$D$18</definedName>
     <definedName name="compare22" localSheetId="3">Todos!$A$1:$D$20</definedName>
     <definedName name="marcos" localSheetId="7">Planilha6!$A$1:$D$14</definedName>
     <definedName name="resultados" localSheetId="0">Entidades!$A$1:$D$7</definedName>
+    <definedName name="resultados" localSheetId="10">'Gráfico entidades'!$A$1:$D$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -80,11 +82,21 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="5" name="resultados1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\Marcos\Documents\GitHub\drunk\resultados.csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="230">
   <si>
     <t>Técnica</t>
   </si>
@@ -753,6 +765,27 @@
   </si>
   <si>
     <t>+ Recall</t>
+  </si>
+  <si>
+    <t>Entities + hour + error</t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>Entities Calais</t>
+  </si>
+  <si>
+    <t>KeyWords Alchemy</t>
+  </si>
+  <si>
+    <t>Entities Alchemy</t>
+  </si>
+  <si>
+    <t>Concepts Alchemy</t>
+  </si>
+  <si>
+    <t>Categories Alchemy</t>
   </si>
 </sst>
 </file>
@@ -3227,6 +3260,563 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Entities for Q1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico entidades'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gráfico entidades'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entities + hour + error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Entities Calais</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KeyWords Alchemy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entities Alchemy</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Concepts Alchemy</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Categories Alchemy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico entidades'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>89.309579999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.029899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.663667041619803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.337822671156005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.545454545454504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.788221970554901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.670828603859306</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.261740000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F195-4D6F-A5AB-FE7E3DCB94F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico entidades'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gráfico entidades'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entities + hour + error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Entities Calais</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KeyWords Alchemy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entities Alchemy</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Concepts Alchemy</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Categories Alchemy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico entidades'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>88.913529999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.13158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.176470588235304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.639639639639597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.9930715935335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.908256880733902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.013824884792598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.261740000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F195-4D6F-A5AB-FE7E3DCB94F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gráfico entidades'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gráfico entidades'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entities + hour + error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Entities Calais</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KeyWords Alchemy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entities Alchemy</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Concepts Alchemy</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Categories Alchemy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico entidades'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>89.70917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.946309999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.1565995525727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.038031319910502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.143176733780805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.6957494407159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.366890380313194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.261740000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F195-4D6F-A5AB-FE7E3DCB94F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="347301392"/>
+        <c:axId val="347299752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="347301392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347299752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="347299752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347301392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3427,6 +4017,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5440,6 +6070,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6147,6 +7280,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD29928-5157-40CC-8FE3-2CBDDB82467C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="resultados" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -6161,6 +7335,10 @@
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="marcos" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="resultados" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6463,7 +7641,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6832,12 +8010,281 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>89.309579999999997</v>
+      </c>
+      <c r="C2">
+        <v>88.913529999999994</v>
+      </c>
+      <c r="D2">
+        <v>89.70917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3">
+        <v>91.029899999999998</v>
+      </c>
+      <c r="C3">
+        <v>90.13158</v>
+      </c>
+      <c r="D3">
+        <v>91.946309999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4">
+        <v>90.663667041619803</v>
+      </c>
+      <c r="C4">
+        <v>91.176470588235304</v>
+      </c>
+      <c r="D4">
+        <v>90.1565995525727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5">
+        <v>89.337822671156005</v>
+      </c>
+      <c r="C5">
+        <v>89.639639639639597</v>
+      </c>
+      <c r="D5">
+        <v>89.038031319910502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6">
+        <v>89.545454545454504</v>
+      </c>
+      <c r="C6">
+        <v>90.9930715935335</v>
+      </c>
+      <c r="D6">
+        <v>88.143176733780805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7">
+        <v>88.788221970554901</v>
+      </c>
+      <c r="C7">
+        <v>89.908256880733902</v>
+      </c>
+      <c r="D7">
+        <v>87.6957494407159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8">
+        <v>89.670828603859306</v>
+      </c>
+      <c r="C8">
+        <v>91.013824884792598</v>
+      </c>
+      <c r="D8">
+        <v>88.366890380313194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9">
+        <v>89.261740000000003</v>
+      </c>
+      <c r="C9">
+        <v>89.261740000000003</v>
+      </c>
+      <c r="D9">
+        <v>89.261740000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12">
+        <v>90.200445434298402</v>
+      </c>
+      <c r="C12">
+        <v>89.800443458979998</v>
+      </c>
+      <c r="D12">
+        <v>90.604026845637605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>89.670828603859306</v>
+      </c>
+      <c r="C13">
+        <v>91.013824884792598</v>
+      </c>
+      <c r="D13">
+        <v>88.366890380313194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14">
+        <v>88.989784335981795</v>
+      </c>
+      <c r="C14">
+        <v>90.322580645161295</v>
+      </c>
+      <c r="D14">
+        <v>87.6957494407159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15">
+        <v>89.545454545454504</v>
+      </c>
+      <c r="C15">
+        <v>90.9930715935335</v>
+      </c>
+      <c r="D15">
+        <v>88.143176733780805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16">
+        <v>89.337822671156005</v>
+      </c>
+      <c r="C16">
+        <v>89.639639639639597</v>
+      </c>
+      <c r="D16">
+        <v>89.038031319910502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17">
+        <v>88.788221970554901</v>
+      </c>
+      <c r="C17">
+        <v>89.908256880733902</v>
+      </c>
+      <c r="D17">
+        <v>87.6957494407159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18">
+        <v>90.663667041619803</v>
+      </c>
+      <c r="C18">
+        <v>91.176470588235304</v>
+      </c>
+      <c r="D18">
+        <v>90.1565995525727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19">
+        <v>90.929203539823007</v>
+      </c>
+      <c r="C19">
+        <v>89.934354485776794</v>
+      </c>
+      <c r="D19">
+        <v>91.946308724832207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20">
+        <v>88.838268792710707</v>
+      </c>
+      <c r="C20">
+        <v>90.487238979118302</v>
+      </c>
+      <c r="D20">
+        <v>87.248322147650995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8286,7 +9733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>

--- a/planilhas/resultados.xlsx
+++ b/planilhas/resultados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Q2" sheetId="9" r:id="rId9"/>
     <sheet name="Q3" sheetId="10" r:id="rId10"/>
     <sheet name="Gráfico entidades" sheetId="19" r:id="rId11"/>
+    <sheet name="Exaustiva" sheetId="20" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="compare_entities" localSheetId="1">Planilha1!$A$1:$D$18</definedName>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="232">
   <si>
     <t>Técnica</t>
   </si>
@@ -786,14 +787,21 @@
   </si>
   <si>
     <t>Categories Alchemy</t>
+  </si>
+  <si>
+    <t>2 Gram + Types CFS</t>
+  </si>
+  <si>
+    <t>2 Gram + Info Gain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -832,11 +840,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8014,8 +8023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8276,6 +8285,137 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4">
+        <v>87.954545454545396</v>
+      </c>
+      <c r="C2" s="4">
+        <v>89.376443418013906</v>
+      </c>
+      <c r="D2" s="4">
+        <v>86.577181208053702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4">
+        <v>86.230248306997694</v>
+      </c>
+      <c r="C3" s="4">
+        <v>87.015945330296105</v>
+      </c>
+      <c r="D3" s="4">
+        <v>85.458612975391503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4">
+        <v>85.966850828729306</v>
+      </c>
+      <c r="C4" s="4">
+        <v>84.934497816593904</v>
+      </c>
+      <c r="D4" s="4">
+        <v>87.024608501118607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4">
+        <v>86.757990867579906</v>
+      </c>
+      <c r="C5" s="4">
+        <v>88.578088578088597</v>
+      </c>
+      <c r="D5" s="4">
+        <v>85.011185682326598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="4">
+        <v>87.556561085972902</v>
+      </c>
+      <c r="C6" s="4">
+        <v>88.558352402745996</v>
+      </c>
+      <c r="D6" s="4">
+        <v>86.577181208053702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="4">
+        <v>86.754966887417197</v>
+      </c>
+      <c r="C7" s="4">
+        <v>85.620915032679704</v>
+      </c>
+      <c r="D7" s="4">
+        <v>87.919463087248303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="4">
+        <v>85.082872928176798</v>
+      </c>
+      <c r="C8" s="4">
+        <v>84.061135371179006</v>
+      </c>
+      <c r="D8" s="4">
+        <v>86.129753914988797</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/planilhas/resultados.xlsx
+++ b/planilhas/resultados.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="232">
   <si>
     <t>Técnica</t>
   </si>
@@ -898,7 +898,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Comparative for Q1</a:t>
+              <a:t>Comparative for Q1 (drinking alcohol)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -948,7 +948,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Proposed Method</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -987,13 +987,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>91.029899999999998</c:v>
+                  <c:v>89.309579999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.13158</c:v>
+                  <c:v>88.913529999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.946309999999997</c:v>
+                  <c:v>89.70917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1013,7 +1013,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>Proposed Method</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1052,13 +1052,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>89.309579999999997</c:v>
+                  <c:v>91.029899999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.913529999999994</c:v>
+                  <c:v>90.13158</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.70917</c:v>
+                  <c:v>91.946309999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,6 +1266,527 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0"/>
+              <a:t>Comparative for Q1 (drinking alcohol)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfico!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfico!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfico!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>89.309579999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.913529999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.70917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4020-4BF3-B28A-222470CFA0B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfico!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed Method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfico!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfico!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>91.029899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.13158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.946309999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4020-4BF3-B28A-222470CFA0B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="438783152"/>
+        <c:axId val="438780200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="438783152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438780200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="438780200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="438783152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1992,7 +2513,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2452,7 +2973,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2581,7 +3102,7 @@
             <c:numRef>
               <c:f>'Q2'!$B$2:$D$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>82.562277580071196</c:v>
@@ -2646,7 +3167,7 @@
             <c:numRef>
               <c:f>'Q2'!$B$3:$D$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>87.755102040816297</c:v>
@@ -2751,7 +3272,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2862,7 +3383,528 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0"/>
+              <a:t>Comparative for Q2 (user drinking alcohol)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q2'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precisison</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q2'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>82.562277580071196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.5555555555556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.671532846715294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA6D-4893-8382-1E2CD0F99BC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q2'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed Method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q2'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precisison</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q2'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>87.755102040816297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.165605095541395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.160583941605793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA6D-4893-8382-1E2CD0F99BC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="438783152"/>
+        <c:axId val="438780200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="438783152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438780200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="438780200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="438783152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2988,7 +4030,7 @@
             <c:numRef>
               <c:f>'Q3'!$B$2:$D$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>76.470588235294102</c:v>
@@ -3053,7 +4095,7 @@
             <c:numRef>
               <c:f>'Q3'!$B$3:$D$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>80.141843971631204</c:v>
@@ -3158,7 +4200,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3269,7 +4311,528 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0"/>
+              <a:t>Comparative for Q3 (user tweeting while drunk)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q3'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precisison</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q3'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>76.470588235294102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.239436619718305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1325-4582-9F5D-72BA4AC39A22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q3'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed Method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q3'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precisison</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q3'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80.141843971631204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.342105263157904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.923076923076906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1325-4582-9F5D-72BA4AC39A22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="438783152"/>
+        <c:axId val="438780200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="438783152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438780200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="438780200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="438783152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -4066,6 +5629,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4570,6 +6253,576 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5072,7 +7325,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5575,7 +7828,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6078,7 +8331,577 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6581,7 +9404,577 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7088,16 +10481,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7117,6 +10510,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3310AE-E0B7-4E4C-86DC-F37D398B3773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7212,15 +10641,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7240,6 +10669,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312727E0-B027-4CA3-BA7D-A8182B431BAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7281,6 +10748,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791F90DE-1C68-42F2-AC32-06FEC3688C76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7947,10 +11452,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7959,7 +11464,7 @@
     <col min="2" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -7970,35 +11475,53 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>76.470588235294102</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>73.239436619718305</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>76.470588235294102</v>
+      </c>
+      <c r="G2">
+        <v>73.239436619718305</v>
+      </c>
+      <c r="H2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>139</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>80.141843971631204</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>74.342105263157904</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>86.923076923076906</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>80.141843971631204</v>
+      </c>
+      <c r="G3">
+        <v>74.342105263157904</v>
+      </c>
+      <c r="H3">
+        <v>86.923076923076906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>B3-B2</f>
         <v>3.6712557363371019</v>
@@ -8292,7 +11815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -8695,7 +12218,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8717,43 +12240,43 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>91.029899999999998</v>
+        <v>89.309579999999997</v>
       </c>
       <c r="C2">
-        <v>90.13158</v>
+        <v>88.913529999999994</v>
       </c>
       <c r="D2">
-        <v>91.946309999999997</v>
+        <v>89.70917</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="B3">
-        <v>89.309579999999997</v>
+        <v>91.029899999999998</v>
       </c>
       <c r="C3">
-        <v>88.913529999999994</v>
+        <v>90.13158</v>
       </c>
       <c r="D3">
-        <v>89.70917</v>
+        <v>91.946309999999997</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4">
-        <f>B2-B3</f>
+        <f>B3-B2</f>
         <v>1.720320000000001</v>
       </c>
       <c r="C4">
-        <f>C2-C3</f>
+        <f>C3-C2</f>
         <v>1.2180500000000052</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4" si="0">D2-D3</f>
+        <f>D3-D2</f>
         <v>2.2371399999999966</v>
       </c>
     </row>
@@ -10047,10 +13570,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10059,7 +13582,7 @@
     <col min="2" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -10070,35 +13593,59 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>82.562277580071196</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>80.5555555555556</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>84.671532846715294</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>82.562277580071196</v>
+      </c>
+      <c r="H2">
+        <v>80.5555555555556</v>
+      </c>
+      <c r="I2">
+        <v>84.671532846715294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>139</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>87.755102040816297</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>82.165605095541395</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>94.160583941605793</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3">
+        <v>87.755102040816297</v>
+      </c>
+      <c r="H3">
+        <v>82.165605095541395</v>
+      </c>
+      <c r="I3">
+        <v>94.160583941605793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>B3-B2</f>
         <v>5.1928244607451006</v>
